--- a/12 5/ExactModelData.xlsx
+++ b/12 5/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD4545A-F1D4-45D3-A6AD-DD5BAC0AF46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B952E99-5CA9-4E80-B1C3-6D9661D3BAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -411,40 +411,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.045336236304266</c:v>
+                  <c:v>47.830919756441219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.952910005977188</c:v>
+                  <c:v>-72.850594616918812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.127960544721773</c:v>
+                  <c:v>-42.14001137797419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.45250835621512</c:v>
+                  <c:v>-67.73202686823285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-76.758826010193616</c:v>
+                  <c:v>76.783968667676206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-42.784425827727659</c:v>
+                  <c:v>-39.531371375238905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.054868533819842</c:v>
+                  <c:v>23.98290891068136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26.322073746541648</c:v>
+                  <c:v>-83.695885561209906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.516277285825794</c:v>
+                  <c:v>95.60923505273729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-73.22147958474747</c:v>
+                  <c:v>-87.387160662328768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99.97469826166035</c:v>
+                  <c:v>57.554864857910886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-15.628716882002706</c:v>
+                  <c:v>-81.314928820258373</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -462,40 +462,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-48.666636398077117</c:v>
+                  <c:v>35.055463742800796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-48.147186570336913</c:v>
+                  <c:v>1.7495600502964237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.441097647297937</c:v>
+                  <c:v>29.362813913397858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-53.017551897083095</c:v>
+                  <c:v>-91.368146181383153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-79.534589146228001</c:v>
+                  <c:v>-79.159816365095637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.33761314984244</c:v>
+                  <c:v>24.133065209229912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-62.618605537445291</c:v>
+                  <c:v>73.352503112047131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.8299362847440506</c:v>
+                  <c:v>4.3044645292020647</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.121667637600567</c:v>
+                  <c:v>3.1373075289855592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-33.585573320446983</c:v>
+                  <c:v>91.463181827615728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-17.964711529182736</c:v>
+                  <c:v>48.232150858262287</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.051729203935778</c:v>
+                  <c:v>-38.40867661916829</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,19 +1652,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.0693950899026305</v>
+        <v>1.0282017757930653</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>14.411370975489683</v>
+        <v>10.939597290970404</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1684,9 +1684,8 @@
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2:L14" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>1.9867623208383339E-2</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1699,11 +1698,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.83973441720674424</v>
+        <v>0.78374509283693294</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>7.2476230560251107</v>
+        <v>9.7354535670636455</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1715,34 +1714,34 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.3202485925096963</v>
+        <v>0.78374509283693294</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>13.426956554457195</v>
+        <v>9.7354535670636455</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H14" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>32.045336236304266</v>
+        <v>47.830919756441219</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-48.666636398077117</v>
+        <v>35.055463742800796</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I14" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1752,9 +1751,9 @@
         <f ca="1">IF(J3=0,24,J3+1)</f>
         <v>24</v>
       </c>
-      <c r="L3">
-        <f ca="1"/>
-        <v>5.1926566343361125E-2</v>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3:L14" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
+        <v>9.1048724908400075E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1767,11 +1766,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.0693950899026305</v>
+        <v>1.4597969155051786</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>14.411370975489683</v>
+        <v>11.869505907418592</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1783,37 +1782,37 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.83973441720674424</v>
+        <v>1.4597969155051786</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>7.2476230560251107</v>
+        <v>11.869505907418592</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>83.952910005977188</v>
+        <v>-72.850594616918812</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-48.147186570336913</v>
+        <v>1.7495600502964237</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J17" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <f t="shared" ref="J4:J13" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
@@ -1822,7 +1821,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>3.7567194144104588E-2</v>
+        <v>4.4476481997579143E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1835,11 +1834,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.3202485925096963</v>
+        <v>1.0282017757930653</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>13.426956554457195</v>
+        <v>10.939597290970404</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1855,11 +1854,11 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.83973441720674424</v>
+        <v>0.78374509283693294</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>7.2476230560251107</v>
+        <v>9.7354535670636455</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
@@ -1870,15 +1869,15 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>50.127960544721773</v>
+        <v>-42.14001137797419</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-11.441097647297937</v>
+        <v>29.362813913397858</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1890,7 +1889,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>9.2960151403279595E-2</v>
+        <v>0.10437397226490569</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1907,34 +1906,34 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.3202485925096963</v>
+        <v>0.78374509283693294</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>13.426956554457195</v>
+        <v>9.7354535670636455</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>99.45250835621512</v>
+        <v>-67.73202686823285</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-53.017551897083095</v>
+        <v>-91.368146181383153</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1946,7 +1945,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>7.2547535130094098E-2</v>
+        <v>4.3742827739683132E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1963,15 +1962,15 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-76.758826010193616</v>
+        <v>76.783968667676206</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>-79.534589146228001</v>
+        <v>-79.159816365095637</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -1983,7 +1982,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>9.1965589577220286E-2</v>
+        <v>0.11011617571612581</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1999,27 +1998,27 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-42.784425827727659</v>
+        <v>-39.531371375238905</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-5.33761314984244</v>
+        <v>24.133065209229912</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K17" ca="1" si="3">IF(J8=0,24,J8+1)</f>
+        <f t="shared" ref="K8:K13" ca="1" si="3">IF(J8=0,24,J8+1)</f>
         <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>2.8987550208747964E-2</v>
+        <v>9.5010242960401559E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2034,15 +2033,15 @@
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>28.054868533819842</v>
+        <v>23.98290891068136</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>-62.618605537445291</v>
+        <v>73.352503112047131</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2054,7 +2053,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>0.14778217058564971</v>
+        <v>1.668647744315771E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2069,15 +2068,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-26.322073746541648</v>
+        <v>-83.695885561209906</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-5.8299362847440506</v>
+        <v>4.3044645292020647</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2089,7 +2088,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>9.1803111628929984E-2</v>
+        <v>0.10228730448942305</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2104,15 +2103,15 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>18.516277285825794</v>
+        <v>95.60923505273729</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>72.121667637600567</v>
+        <v>3.1373075289855592</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>0.15739976909085857</v>
+        <v>5.4716632407792481E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2139,11 +2138,11 @@
       </c>
       <c r="G12">
         <f ca="1"/>
-        <v>-73.22147958474747</v>
+        <v>-87.387160662328768</v>
       </c>
       <c r="H12">
         <f ca="1"/>
-        <v>-33.585573320446983</v>
+        <v>91.463181827615728</v>
       </c>
       <c r="I12">
         <f ca="1"/>
@@ -2159,7 +2158,7 @@
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>2.5699828735949087E-2</v>
+        <v>5.3935267777007107E-2</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2174,15 +2173,15 @@
       </c>
       <c r="G13">
         <f ca="1"/>
-        <v>99.97469826166035</v>
+        <v>57.554864857910886</v>
       </c>
       <c r="H13">
         <f ca="1"/>
-        <v>-17.964711529182736</v>
+        <v>48.232150858262287</v>
       </c>
       <c r="I13">
         <f ca="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -2194,7 +2193,7 @@
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>6.8322846885174537E-2</v>
+        <v>5.0601308058795869E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2203,15 +2202,15 @@
       </c>
       <c r="G14">
         <f ca="1"/>
-        <v>-15.628716882002706</v>
+        <v>-81.314928820258373</v>
       </c>
       <c r="H14">
         <f ca="1"/>
-        <v>90.051729203935778</v>
+        <v>-38.40867661916829</v>
       </c>
       <c r="I14">
         <f ca="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -2223,14 +2222,14 @@
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>7.8756783432945954E-2</v>
+        <v>6.4132600841652176E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2260,13 +2259,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.57894736842105265</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -2297,51 +2296,51 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>58.269589605560462</v>
+        <v>59.301622431177549</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>96.779350447864331</v>
+        <v>72.871600067572501</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>51.417031650496796</v>
+        <v>51.361029972622482</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>112.70165139652097</v>
+        <v>113.73550720993694</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>110.53356160516346</v>
+        <v>110.2817046083091</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>43.116089891659939</v>
+        <v>46.315593045971035</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>68.616072518791754</v>
+        <v>77.173633014268049</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>26.959965196612409</v>
+        <v>83.806501387173441</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>74.460643747916308</v>
+        <v>95.660694780568051</v>
       </c>
       <c r="K1">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>80.556662094718831</v>
+        <v>126.49912837112814</v>
       </c>
       <c r="L1">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>101.57593786343685</v>
+        <v>75.09262843466432</v>
       </c>
       <c r="M1">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>91.397870456574509</v>
+        <v>89.929661895725658</v>
       </c>
       <c r="N1">
         <f>SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
@@ -2351,7 +2350,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>58.269589605560462</v>
+        <v>59.301622431177549</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2359,61 +2358,61 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>51.910172825541387</v>
+        <v>125.19309538557579</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>41.385046057303526</v>
+        <v>90.150844207217062</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>67.547444947109412</v>
+        <v>171.28258457543046</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>113.09808234017194</v>
+        <v>117.82787977122226</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>86.469055425659022</v>
+        <v>88.042425577119275</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>14.511418791780947</v>
+        <v>45.115306113879839</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>72.399844093100441</v>
+        <v>135.07377417434535</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>121.54361286345257</v>
+        <v>57.458995019420513</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>106.34162391394391</v>
+        <v>146.51197879925351</v>
       </c>
       <c r="L2">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>74.545331281221934</v>
+        <v>16.376208098188201</v>
       </c>
       <c r="M2">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>146.68196990775954</v>
+        <v>148.5787001010539</v>
       </c>
       <c r="N2">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>58.269589605560462</v>
+        <v>59.301622431177549</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>96.779350447864331</v>
+        <v>72.871600067572501</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>51.910172825541387</v>
+        <v>125.19309538557579</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2421,61 +2420,61 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>49.914568715782046</v>
+        <v>41.299294325499467</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>16.246784526012213</v>
+        <v>93.258280863670578</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>163.74807215290329</v>
+        <v>170.10828822047171</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>133.77223878918224</v>
+        <v>40.139655462259569</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>57.740912768543993</v>
+        <v>120.43134500840746</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>118.11571323643524</v>
+        <v>11.142166421421576</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>136.91804188726229</v>
+        <v>168.46554560323057</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>157.84748754305934</v>
+        <v>90.883693173178571</v>
       </c>
       <c r="L3">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>34.171325676945017</v>
+        <v>138.44210020460625</v>
       </c>
       <c r="M3">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>170.33919318477868</v>
+        <v>41.040576578632084</v>
       </c>
       <c r="N3">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>96.779350447864331</v>
+        <v>72.871600067572501</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>51.417031650496796</v>
+        <v>51.361029972622482</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>41.385046057303526</v>
+        <v>90.150844207217062</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>49.914568715782046</v>
+        <v>41.299294325499467</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2483,61 +2482,61 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>64.509786581516238</v>
+        <v>123.41359723410238</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>144.00340338598778</v>
+        <v>160.99712516831113</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>93.112641807834052</v>
+        <v>5.8442513782876464</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>55.734717230536276</v>
+        <v>79.418721617095144</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>76.65567738251336</v>
+        <v>48.526400577349051</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>89.34223111451719</v>
+        <v>140.22350757753756</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>125.32143544937637</v>
+        <v>76.835930484649495</v>
       </c>
       <c r="L4">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>50.271809188661464</v>
+        <v>101.46487187409872</v>
       </c>
       <c r="M4">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>120.93276862975065</v>
+        <v>78.279301770107054</v>
       </c>
       <c r="N4">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>51.417031650496796</v>
+        <v>51.361029972622482</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>112.70165139652097</v>
+        <v>113.73550720993694</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>67.547444947109412</v>
+        <v>171.28258457543046</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>16.246784526012213</v>
+        <v>93.258280863670578</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>64.509786581516238</v>
+        <v>123.41359723410238</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2545,61 +2544,61 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>178.19536364244394</v>
+        <v>145.03074254322129</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>150.01573919088585</v>
+        <v>118.89409910897014</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>72.04028875020974</v>
+        <v>188.53254824719156</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>134.33509061410933</v>
+        <v>96.995325787114737</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>149.03186828872947</v>
+        <v>188.7104889160579</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>173.76394304584178</v>
+        <v>183.88479759348769</v>
       </c>
       <c r="L5">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>35.056729741304359</v>
+        <v>187.5767794050098</v>
       </c>
       <c r="M5">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>183.60966095794575</v>
+        <v>54.673582667953099</v>
       </c>
       <c r="N5">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>112.70165139652097</v>
+        <v>113.73550720993694</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>110.53356160516346</v>
+        <v>110.2817046083091</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>113.09808234017194</v>
+        <v>117.82787977122226</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>163.74807215290329</v>
+        <v>170.10828822047171</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>144.00340338598778</v>
+        <v>160.99712516831113</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>178.19536364244394</v>
+        <v>145.03074254322129</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2607,61 +2606,61 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>81.605460079375561</v>
+        <v>155.55924181232891</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>106.1699631035933</v>
+        <v>161.393802556851</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>89.309808153062647</v>
+        <v>180.88689780779248</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>179.10043419754658</v>
+        <v>84.422788722632589</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>46.08497450462017</v>
+        <v>236.77915283605356</v>
       </c>
       <c r="L6">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>187.15124480304141</v>
+        <v>128.83505635642743</v>
       </c>
       <c r="M6">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>180.26760555792498</v>
+        <v>163.26639818864305</v>
       </c>
       <c r="N6">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>110.53356160516346</v>
+        <v>110.2817046083091</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>43.116089891659939</v>
+        <v>46.315593045971035</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>86.469055425659022</v>
+        <v>88.042425577119275</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>133.77223878918224</v>
+        <v>40.139655462259569</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>93.112641807834052</v>
+        <v>5.8442513782876464</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>150.01573919088585</v>
+        <v>118.89409910897014</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>81.605460079375561</v>
+        <v>155.55924181232891</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2669,61 +2668,61 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>91.100591186614096</v>
+        <v>80.353076280300058</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>16.469712144238855</v>
+        <v>48.411545298728434</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>98.781153983560841</v>
+        <v>136.76185632802992</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>41.52543190874448</v>
+        <v>82.604607451011944</v>
       </c>
       <c r="L7">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>143.31647192228402</v>
+        <v>100.03251069046685</v>
       </c>
       <c r="M7">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>99.179429132412508</v>
+        <v>75.21525871584339</v>
       </c>
       <c r="N7">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>43.116089891659939</v>
+        <v>46.315593045971035</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>68.616072518791754</v>
+        <v>77.173633014268049</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>14.511418791780947</v>
+        <v>45.115306113879839</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>57.740912768543993</v>
+        <v>120.43134500840746</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>55.734717230536276</v>
+        <v>79.418721617095144</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>72.04028875020974</v>
+        <v>188.53254824719156</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>106.1699631035933</v>
+        <v>161.393802556851</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>91.100591186614096</v>
+        <v>80.353076280300058</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2731,61 +2730,61 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>78.624454257275843</v>
+        <v>127.91541897307714</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>135.07748124051724</v>
+        <v>100.30206521989342</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>105.35566262876664</v>
+        <v>112.83301414141016</v>
       </c>
       <c r="L8">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>84.654782252290488</v>
+        <v>41.929802330525639</v>
       </c>
       <c r="M8">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>158.79699853846989</v>
+        <v>153.55193234122569</v>
       </c>
       <c r="N8">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>68.616072518791754</v>
+        <v>77.173633014268049</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>26.959965196612409</v>
+        <v>83.806501387173441</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>72.399844093100441</v>
+        <v>135.07377417434535</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>118.11571323643524</v>
+        <v>11.142166421421576</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>76.65567738251336</v>
+        <v>48.526400577349051</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>134.33509061410933</v>
+        <v>96.995325787114737</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>89.309808153062647</v>
+        <v>180.88689780779248</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>16.469712144238855</v>
+        <v>48.411545298728434</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>78.624454257275843</v>
+        <v>127.91541897307714</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2793,61 +2792,61 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>89.927361116447202</v>
+        <v>179.30891928134892</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>54.497060977950163</v>
+        <v>87.236847220523359</v>
       </c>
       <c r="L9">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>126.87839607247878</v>
+        <v>147.92368343233295</v>
       </c>
       <c r="M9">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>96.476119625094157</v>
+        <v>42.779450461207318</v>
       </c>
       <c r="N9">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>26.959965196612409</v>
+        <v>83.806501387173441</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>74.460643747916308</v>
+        <v>95.660694780568051</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>121.54361286345257</v>
+        <v>57.458995019420513</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>136.91804188726229</v>
+        <v>168.46554560323057</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>89.34223111451719</v>
+        <v>140.22350757753756</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>149.03186828872947</v>
+        <v>188.7104889160579</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>179.10043419754658</v>
+        <v>84.422788722632589</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>98.781153983560841</v>
+        <v>136.76185632802992</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>135.07748124051724</v>
+        <v>100.30206521989342</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>89.927361116447202</v>
+        <v>179.30891928134892</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2855,61 +2854,61 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>139.96369824567776</v>
+        <v>203.19729554135918</v>
       </c>
       <c r="L10">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>121.45381862773081</v>
+        <v>59.005762310276999</v>
       </c>
       <c r="M10">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>38.566406813360423</v>
+        <v>181.73670119433027</v>
       </c>
       <c r="N10">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>74.460643747916308</v>
+        <v>95.660694780568051</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>80.556662094718831</v>
+        <v>126.49912837112814</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>106.34162391394391</v>
+        <v>146.51197879925351</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>157.84748754305934</v>
+        <v>90.883693173178571</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>125.32143544937637</v>
+        <v>76.835930484649495</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>173.76394304584178</v>
+        <v>183.88479759348769</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>46.08497450462017</v>
+        <v>236.77915283605356</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>41.52543190874448</v>
+        <v>82.604607451011944</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>105.35566262876664</v>
+        <v>112.83301414141016</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>54.497060977950163</v>
+        <v>87.236847220523359</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>139.96369824567776</v>
+        <v>203.19729554135918</v>
       </c>
       <c r="K11">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2917,61 +2916,61 @@
       </c>
       <c r="L11">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>173.89918730030425</v>
+        <v>151.25181916454096</v>
       </c>
       <c r="M11">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>136.39321424191311</v>
+        <v>130.01373625877136</v>
       </c>
       <c r="N11">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>80.556662094718831</v>
+        <v>126.49912837112814</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>101.57593786343685</v>
+        <v>75.09262843466432</v>
       </c>
       <c r="B12">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>74.545331281221934</v>
+        <v>16.376208098188201</v>
       </c>
       <c r="C12">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>34.171325676945017</v>
+        <v>138.44210020460625</v>
       </c>
       <c r="D12">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>50.271809188661464</v>
+        <v>101.46487187409872</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>35.056729741304359</v>
+        <v>187.5767794050098</v>
       </c>
       <c r="F12">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>187.15124480304141</v>
+        <v>128.83505635642743</v>
       </c>
       <c r="G12">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>143.31647192228402</v>
+        <v>100.03251069046685</v>
       </c>
       <c r="H12">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>84.654782252290488</v>
+        <v>41.929802330525639</v>
       </c>
       <c r="I12">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>126.87839607247878</v>
+        <v>147.92368343233295</v>
       </c>
       <c r="J12">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>121.45381862773081</v>
+        <v>59.005762310276999</v>
       </c>
       <c r="K12">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>173.89918730030425</v>
+        <v>151.25181916454096</v>
       </c>
       <c r="L12">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
@@ -2979,61 +2978,61 @@
       </c>
       <c r="M12">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>158.21409880768974</v>
+        <v>163.68094752350132</v>
       </c>
       <c r="N12">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>101.57593786343685</v>
+        <v>75.09262843466432</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>91.397870456574509</v>
+        <v>89.929661895725658</v>
       </c>
       <c r="B13">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>146.68196990775954</v>
+        <v>148.5787001010539</v>
       </c>
       <c r="C13">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>170.33919318477868</v>
+        <v>41.040576578632084</v>
       </c>
       <c r="D13">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>120.93276862975065</v>
+        <v>78.279301770107054</v>
       </c>
       <c r="E13">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>183.60966095794575</v>
+        <v>54.673582667953099</v>
       </c>
       <c r="F13">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>180.26760555792498</v>
+        <v>163.26639818864305</v>
       </c>
       <c r="G13">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>99.179429132412508</v>
+        <v>75.21525871584339</v>
       </c>
       <c r="H13">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>158.79699853846989</v>
+        <v>153.55193234122569</v>
       </c>
       <c r="I13">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>96.476119625094157</v>
+        <v>42.779450461207318</v>
       </c>
       <c r="J13">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>38.566406813360423</v>
+        <v>181.73670119433027</v>
       </c>
       <c r="K13">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>136.39321424191311</v>
+        <v>130.01373625877136</v>
       </c>
       <c r="L13">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>158.21409880768974</v>
+        <v>163.68094752350132</v>
       </c>
       <c r="M13">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
@@ -3041,7 +3040,7 @@
       </c>
       <c r="N13">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>91.397870456574509</v>
+        <v>89.929661895725658</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3051,51 +3050,51 @@
       </c>
       <c r="B14">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>58.269589605560462</v>
+        <v>59.301622431177549</v>
       </c>
       <c r="C14">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>96.779350447864331</v>
+        <v>72.871600067572501</v>
       </c>
       <c r="D14">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>51.417031650496796</v>
+        <v>51.361029972622482</v>
       </c>
       <c r="E14">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>112.70165139652097</v>
+        <v>113.73550720993694</v>
       </c>
       <c r="F14">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>110.53356160516346</v>
+        <v>110.2817046083091</v>
       </c>
       <c r="G14">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>43.116089891659939</v>
+        <v>46.315593045971035</v>
       </c>
       <c r="H14">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>68.616072518791754</v>
+        <v>77.173633014268049</v>
       </c>
       <c r="I14">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>26.959965196612409</v>
+        <v>83.806501387173441</v>
       </c>
       <c r="J14">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>74.460643747916308</v>
+        <v>95.660694780568051</v>
       </c>
       <c r="K14">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>80.556662094718831</v>
+        <v>126.49912837112814</v>
       </c>
       <c r="L14">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>101.57593786343685</v>
+        <v>75.09262843466432</v>
       </c>
       <c r="M14">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>91.397870456574509</v>
+        <v>89.929661895725658</v>
       </c>
       <c r="N14">
         <f>SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3127,51 +3126,51 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.72836987006950582</v>
+        <v>0.74127028038971932</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.2097418805983042</v>
+        <v>0.91089500084465624</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.64271289563120992</v>
+        <v>0.64201287465778101</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!F1/80</f>
-        <v>1.3816695200645432</v>
+        <v>1.3785213076038638</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.53895112364574926</v>
+        <v>0.57894491307463791</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.53895112364574926</v>
+        <v>0.57894491307463791</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>0.85770090648489694</v>
+        <v>0.96467041267835063</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>0.3369995649576551</v>
+        <v>1.0475812673396681</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>0.9307580468489538</v>
+        <v>1.1957586847571007</v>
       </c>
       <c r="K1">
         <f ca="1">Distances!K1/80</f>
-        <v>1.0069582761839855</v>
+        <v>1.5812391046391017</v>
       </c>
       <c r="L1">
         <f ca="1">Distances!L1/80</f>
-        <v>1.2696992232929607</v>
+        <v>0.93865785543330404</v>
       </c>
       <c r="M1">
         <f ca="1">Distances!M1/80</f>
-        <v>1.1424733807071814</v>
+        <v>1.1241207736965708</v>
       </c>
       <c r="N1">
         <f>Distances!N1/80</f>
@@ -3193,7 +3192,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.72836987006950582</v>
+        <v>0.74127028038971932</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -3201,51 +3200,51 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.64887716031926734</v>
+        <v>1.5649136923196973</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.51731307571629404</v>
+        <v>1.1268855525902133</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>0.84434306183886765</v>
+        <v>2.141032307192881</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.4137260292521492</v>
+        <v>1.4728484971402782</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.0808631928207377</v>
+        <v>1.1005303197139908</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.18139273489726185</v>
+        <v>0.56394132642349803</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>0.90499805116375553</v>
+        <v>1.6884221771793169</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>1.5192951607931571</v>
+        <v>0.71823743774275639</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>1.3292702989242988</v>
+        <v>1.831399734990669</v>
       </c>
       <c r="L2">
         <f ca="1">Distances!L2/80</f>
-        <v>0.93181664101527417</v>
+        <v>0.20470260122735251</v>
       </c>
       <c r="M2">
         <f ca="1">Distances!M2/80</f>
-        <v>1.8335246238469942</v>
+        <v>1.8572337512631738</v>
       </c>
       <c r="N2">
         <f ca="1">Distances!N2/80</f>
-        <v>0.72836987006950582</v>
+        <v>0.74127028038971932</v>
       </c>
       <c r="O2">
         <f>Distances!O2/80</f>
@@ -3263,11 +3262,11 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.2097418805983042</v>
+        <v>0.91089500084465624</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.64887716031926734</v>
+        <v>1.5649136923196973</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -3275,47 +3274,47 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.62393210894727558</v>
+        <v>0.51624117906874334</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>0.20308480657515265</v>
+        <v>1.1657285107958821</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>2.046850901911291</v>
+        <v>2.1263536027558962</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.672152984864778</v>
+        <v>0.50174569327824459</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>0.72176140960679991</v>
+        <v>1.5053918126050934</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.4764464154554404</v>
+        <v>0.13927708026776969</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.7114755235907786</v>
+        <v>2.1058193200403821</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>1.9730935942882417</v>
+        <v>1.1360461646647322</v>
       </c>
       <c r="L3">
         <f ca="1">Distances!L3/80</f>
-        <v>0.42714157096181271</v>
+        <v>1.7305262525575782</v>
       </c>
       <c r="M3">
         <f ca="1">Distances!M3/80</f>
-        <v>2.1292399148097334</v>
+        <v>0.51300720723290105</v>
       </c>
       <c r="N3">
         <f ca="1">Distances!N3/80</f>
-        <v>1.2097418805983042</v>
+        <v>0.91089500084465624</v>
       </c>
       <c r="O3">
         <f>Distances!O3/80</f>
@@ -3333,15 +3332,15 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.64271289563120992</v>
+        <v>0.64201287465778101</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.51731307571629404</v>
+        <v>1.1268855525902133</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.62393210894727558</v>
+        <v>0.51624117906874334</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -3349,43 +3348,43 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.806372332268953</v>
+        <v>1.5426699654262799</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.8000425423248472</v>
+        <v>2.0124640646038889</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.1639080225979257</v>
+        <v>7.3053142228595574E-2</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>0.69668396538170341</v>
+        <v>0.99273402021368928</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>0.95819596728141698</v>
+        <v>0.60658000721686312</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>1.1167778889314648</v>
+        <v>1.7527938447192195</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.5665179431172045</v>
+        <v>0.96044913105811869</v>
       </c>
       <c r="L4">
         <f ca="1">Distances!L4/80</f>
-        <v>0.62839761485826828</v>
+        <v>1.2683108984262339</v>
       </c>
       <c r="M4">
         <f ca="1">Distances!M4/80</f>
-        <v>1.5116596078718831</v>
+        <v>0.97849127212633813</v>
       </c>
       <c r="N4">
         <f ca="1">Distances!N4/80</f>
-        <v>0.64271289563120992</v>
+        <v>0.64201287465778101</v>
       </c>
       <c r="O4">
         <f>Distances!O4/80</f>
@@ -3403,19 +3402,19 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.4087706424565121</v>
+        <v>1.4216938401242118</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>0.84434306183886765</v>
+        <v>2.141032307192881</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>0.20308480657515265</v>
+        <v>1.1657285107958821</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.806372332268953</v>
+        <v>1.5426699654262799</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3423,39 +3422,39 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>2.227442045530549</v>
+        <v>1.8128842817902662</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.8751967398860732</v>
+        <v>1.4861762388621267</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.90050360937762175</v>
+        <v>2.3566568530898944</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>1.6791886326763668</v>
+        <v>1.2124415723389341</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>1.8628983536091184</v>
+        <v>2.3588811114507235</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>2.1720492880730222</v>
+        <v>2.2985599699185961</v>
       </c>
       <c r="L5">
         <f ca="1">Distances!L5/80</f>
-        <v>0.4382091217663045</v>
+        <v>2.3447097425626224</v>
       </c>
       <c r="M5">
         <f ca="1">Distances!M5/80</f>
-        <v>2.2951207619743217</v>
+        <v>0.68341978334941378</v>
       </c>
       <c r="N5">
         <f ca="1">Distances!N5/80</f>
-        <v>1.4087706424565121</v>
+        <v>1.4216938401242118</v>
       </c>
       <c r="O5">
         <f>Distances!O5/80</f>
@@ -3473,23 +3472,23 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>1.3816695200645432</v>
+        <v>1.3785213076038638</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.4137260292521492</v>
+        <v>1.4728484971402782</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>2.046850901911291</v>
+        <v>2.1263536027558962</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.8000425423248472</v>
+        <v>2.0124640646038889</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>2.227442045530549</v>
+        <v>1.8128842817902662</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3497,35 +3496,35 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.0200682509921946</v>
+        <v>1.9444905226541114</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.3271245387949162</v>
+        <v>2.0174225319606376</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>1.1163726019132831</v>
+        <v>2.261086222597406</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>2.2387554274693322</v>
+        <v>1.0552848590329074</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.57606218130775211</v>
+        <v>2.9597394104506694</v>
       </c>
       <c r="L6">
         <f ca="1">Distances!L6/80</f>
-        <v>2.3393905600380176</v>
+        <v>1.6104382044553429</v>
       </c>
       <c r="M6">
         <f ca="1">Distances!M6/80</f>
-        <v>2.2533450694740624</v>
+        <v>2.0408299773580381</v>
       </c>
       <c r="N6">
         <f ca="1">Distances!N6/80</f>
-        <v>1.3816695200645432</v>
+        <v>1.3785213076038638</v>
       </c>
       <c r="O6">
         <f>Distances!O6/80</f>
@@ -3543,27 +3542,27 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.53895112364574926</v>
+        <v>0.57894491307463791</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.0808631928207377</v>
+        <v>1.1005303197139908</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.672152984864778</v>
+        <v>0.50174569327824459</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.1639080225979257</v>
+        <v>7.3053142228595574E-2</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.8751967398860732</v>
+        <v>1.4861762388621267</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.0200682509921946</v>
+        <v>1.9444905226541114</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3571,31 +3570,31 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.1387573898326762</v>
+        <v>1.0044134535037508</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>0.20587140180298569</v>
+        <v>0.60514431623410547</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.2347644247945104</v>
+        <v>1.7095232041003741</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>0.51906789885930604</v>
+        <v>1.0325575931376494</v>
       </c>
       <c r="L7">
         <f ca="1">Distances!L7/80</f>
-        <v>1.7914558990285503</v>
+        <v>1.2504063836308357</v>
       </c>
       <c r="M7">
         <f ca="1">Distances!M7/80</f>
-        <v>1.2397428641551564</v>
+        <v>0.94019073394804242</v>
       </c>
       <c r="N7">
         <f ca="1">Distances!N7/80</f>
-        <v>0.53895112364574926</v>
+        <v>0.57894491307463791</v>
       </c>
       <c r="O7">
         <f>Distances!O7/80</f>
@@ -3613,31 +3612,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>0.85770090648489694</v>
+        <v>0.96467041267835063</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.18139273489726185</v>
+        <v>0.56394132642349803</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>0.72176140960679991</v>
+        <v>1.5053918126050934</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>0.69668396538170341</v>
+        <v>0.99273402021368928</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.90050360937762175</v>
+        <v>2.3566568530898944</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.3271245387949162</v>
+        <v>2.0174225319606376</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.1387573898326762</v>
+        <v>1.0044134535037508</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3645,27 +3644,27 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>0.982805678215948</v>
+        <v>1.5989427371634641</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>1.6884685155064656</v>
+        <v>1.2537758152486678</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>1.316945782859583</v>
+        <v>1.410412676767627</v>
       </c>
       <c r="L8">
         <f ca="1">Distances!L8/80</f>
-        <v>1.0581847781536311</v>
+        <v>0.52412252913157054</v>
       </c>
       <c r="M8">
         <f ca="1">Distances!M8/80</f>
-        <v>1.9849624817308738</v>
+        <v>1.9193991542653213</v>
       </c>
       <c r="N8">
         <f ca="1">Distances!N8/80</f>
-        <v>0.85770090648489694</v>
+        <v>0.96467041267835063</v>
       </c>
       <c r="O8">
         <f>Distances!O8/80</f>
@@ -3683,35 +3682,35 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>0.3369995649576551</v>
+        <v>1.0475812673396681</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>0.90499805116375553</v>
+        <v>1.6884221771793169</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.4764464154554404</v>
+        <v>0.13927708026776969</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>0.95819596728141698</v>
+        <v>0.60658000721686312</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>1.6791886326763668</v>
+        <v>1.2124415723389341</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>1.1163726019132831</v>
+        <v>2.261086222597406</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>0.20587140180298569</v>
+        <v>0.60514431623410547</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>0.982805678215948</v>
+        <v>1.5989427371634641</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3719,23 +3718,23 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>1.1240920139555901</v>
+        <v>2.2413614910168613</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>0.68121326222437706</v>
+        <v>1.0904605902565421</v>
       </c>
       <c r="L9">
         <f ca="1">Distances!L9/80</f>
-        <v>1.5859799509059846</v>
+        <v>1.849046042904162</v>
       </c>
       <c r="M9">
         <f ca="1">Distances!M9/80</f>
-        <v>1.205951495313677</v>
+        <v>0.5347431307650915</v>
       </c>
       <c r="N9">
         <f ca="1">Distances!N9/80</f>
-        <v>0.3369995649576551</v>
+        <v>1.0475812673396681</v>
       </c>
       <c r="O9">
         <f>Distances!O9/80</f>
@@ -3753,39 +3752,39 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>0.9307580468489538</v>
+        <v>1.1957586847571007</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>1.5192951607931571</v>
+        <v>0.71823743774275639</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.7114755235907786</v>
+        <v>2.1058193200403821</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>1.1167778889314648</v>
+        <v>1.7527938447192195</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>1.8628983536091184</v>
+        <v>2.3588811114507235</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>2.2387554274693322</v>
+        <v>1.0552848590329074</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.2347644247945104</v>
+        <v>1.7095232041003741</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>1.6884685155064656</v>
+        <v>1.2537758152486678</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>1.1240920139555901</v>
+        <v>2.2413614910168613</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3793,19 +3792,19 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>1.7495462280709719</v>
+        <v>2.5399661942669898</v>
       </c>
       <c r="L10">
         <f ca="1">Distances!L10/80</f>
-        <v>1.5181727328466352</v>
+        <v>0.73757202887846252</v>
       </c>
       <c r="M10">
         <f ca="1">Distances!M10/80</f>
-        <v>0.48208008516700529</v>
+        <v>2.2717087649291283</v>
       </c>
       <c r="N10">
         <f ca="1">Distances!N10/80</f>
-        <v>0.9307580468489538</v>
+        <v>1.1957586847571007</v>
       </c>
       <c r="O10">
         <f>Distances!O10/80</f>
@@ -3823,43 +3822,43 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">Distances!A11/80</f>
-        <v>1.0069582761839855</v>
+        <v>1.5812391046391017</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>1.3292702989242988</v>
+        <v>1.831399734990669</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>1.9730935942882417</v>
+        <v>1.1360461646647322</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.5665179431172045</v>
+        <v>0.96044913105811869</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>2.1720492880730222</v>
+        <v>2.2985599699185961</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.57606218130775211</v>
+        <v>2.9597394104506694</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>0.51906789885930604</v>
+        <v>1.0325575931376494</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>1.316945782859583</v>
+        <v>1.410412676767627</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>0.68121326222437706</v>
+        <v>1.0904605902565421</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>1.7495462280709719</v>
+        <v>2.5399661942669898</v>
       </c>
       <c r="K11">
         <f ca="1">Distances!K11/80</f>
@@ -3867,15 +3866,15 @@
       </c>
       <c r="L11">
         <f ca="1">Distances!L11/80</f>
-        <v>2.1737398412538029</v>
+        <v>1.890647739556762</v>
       </c>
       <c r="M11">
         <f ca="1">Distances!M11/80</f>
-        <v>1.704915178023914</v>
+        <v>1.625171703234642</v>
       </c>
       <c r="N11">
         <f ca="1">Distances!N11/80</f>
-        <v>1.0069582761839855</v>
+        <v>1.5812391046391017</v>
       </c>
       <c r="O11">
         <f>Distances!O11/80</f>
@@ -3893,47 +3892,47 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">Distances!A12/80</f>
-        <v>1.2696992232929607</v>
+        <v>0.93865785543330404</v>
       </c>
       <c r="B12">
         <f ca="1">Distances!B12/80</f>
-        <v>0.93181664101527417</v>
+        <v>0.20470260122735251</v>
       </c>
       <c r="C12">
         <f ca="1">Distances!C12/80</f>
-        <v>0.42714157096181271</v>
+        <v>1.7305262525575782</v>
       </c>
       <c r="D12">
         <f ca="1">Distances!D12/80</f>
-        <v>0.62839761485826828</v>
+        <v>1.2683108984262339</v>
       </c>
       <c r="E12">
         <f ca="1">Distances!E12/80</f>
-        <v>0.4382091217663045</v>
+        <v>2.3447097425626224</v>
       </c>
       <c r="F12">
         <f ca="1">Distances!F12/80</f>
-        <v>2.3393905600380176</v>
+        <v>1.6104382044553429</v>
       </c>
       <c r="G12">
         <f ca="1">Distances!G12/80</f>
-        <v>1.7914558990285503</v>
+        <v>1.2504063836308357</v>
       </c>
       <c r="H12">
         <f ca="1">Distances!H12/80</f>
-        <v>1.0581847781536311</v>
+        <v>0.52412252913157054</v>
       </c>
       <c r="I12">
         <f ca="1">Distances!I12/80</f>
-        <v>1.5859799509059846</v>
+        <v>1.849046042904162</v>
       </c>
       <c r="J12">
         <f ca="1">Distances!J12/80</f>
-        <v>1.5181727328466352</v>
+        <v>0.73757202887846252</v>
       </c>
       <c r="K12">
         <f ca="1">Distances!K12/80</f>
-        <v>2.1737398412538029</v>
+        <v>1.890647739556762</v>
       </c>
       <c r="L12">
         <f ca="1">Distances!L12/80</f>
@@ -3941,11 +3940,11 @@
       </c>
       <c r="M12">
         <f ca="1">Distances!M12/80</f>
-        <v>1.9776762350961217</v>
+        <v>2.0460118440437665</v>
       </c>
       <c r="N12">
         <f ca="1">Distances!N12/80</f>
-        <v>1.2696992232929607</v>
+        <v>0.93865785543330404</v>
       </c>
       <c r="O12">
         <f>Distances!O12/80</f>
@@ -3963,51 +3962,51 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">Distances!A13/80</f>
-        <v>1.1424733807071814</v>
+        <v>1.1241207736965708</v>
       </c>
       <c r="B13">
         <f ca="1">Distances!B13/80</f>
-        <v>1.8335246238469942</v>
+        <v>1.8572337512631738</v>
       </c>
       <c r="C13">
         <f ca="1">Distances!C13/80</f>
-        <v>2.1292399148097334</v>
+        <v>0.51300720723290105</v>
       </c>
       <c r="D13">
         <f ca="1">Distances!D13/80</f>
-        <v>1.5116596078718831</v>
+        <v>0.97849127212633813</v>
       </c>
       <c r="E13">
         <f ca="1">Distances!E13/80</f>
-        <v>2.2951207619743217</v>
+        <v>0.68341978334941378</v>
       </c>
       <c r="F13">
         <f ca="1">Distances!F13/80</f>
-        <v>2.2533450694740624</v>
+        <v>2.0408299773580381</v>
       </c>
       <c r="G13">
         <f ca="1">Distances!G13/80</f>
-        <v>1.2397428641551564</v>
+        <v>0.94019073394804242</v>
       </c>
       <c r="H13">
         <f ca="1">Distances!H13/80</f>
-        <v>1.9849624817308738</v>
+        <v>1.9193991542653213</v>
       </c>
       <c r="I13">
         <f ca="1">Distances!I13/80</f>
-        <v>1.205951495313677</v>
+        <v>0.5347431307650915</v>
       </c>
       <c r="J13">
         <f ca="1">Distances!J13/80</f>
-        <v>0.48208008516700529</v>
+        <v>2.2717087649291283</v>
       </c>
       <c r="K13">
         <f ca="1">Distances!K13/80</f>
-        <v>1.704915178023914</v>
+        <v>1.625171703234642</v>
       </c>
       <c r="L13">
         <f ca="1">Distances!L13/80</f>
-        <v>1.9776762350961217</v>
+        <v>2.0460118440437665</v>
       </c>
       <c r="M13">
         <f ca="1">Distances!M13/80</f>
@@ -4015,7 +4014,7 @@
       </c>
       <c r="N13">
         <f ca="1">Distances!N13/80</f>
-        <v>1.1424733807071814</v>
+        <v>1.1241207736965708</v>
       </c>
       <c r="O13">
         <f>Distances!O13/80</f>
@@ -4037,51 +4036,51 @@
       </c>
       <c r="B14">
         <f ca="1">Distances!B14/80</f>
-        <v>0.72836987006950582</v>
+        <v>0.74127028038971932</v>
       </c>
       <c r="C14">
         <f ca="1">Distances!C14/80</f>
-        <v>1.2097418805983042</v>
+        <v>0.91089500084465624</v>
       </c>
       <c r="D14">
         <f ca="1">Distances!D14/80</f>
-        <v>0.64271289563120992</v>
+        <v>0.64201287465778101</v>
       </c>
       <c r="E14">
         <f ca="1">Distances!E14/80</f>
-        <v>1.4087706424565121</v>
+        <v>1.4216938401242118</v>
       </c>
       <c r="F14">
         <f ca="1">Distances!F14/80</f>
-        <v>1.3816695200645432</v>
+        <v>1.3785213076038638</v>
       </c>
       <c r="G14">
         <f ca="1">Distances!G14/80</f>
-        <v>0.53895112364574926</v>
+        <v>0.57894491307463791</v>
       </c>
       <c r="H14">
         <f ca="1">Distances!H14/80</f>
-        <v>0.85770090648489694</v>
+        <v>0.96467041267835063</v>
       </c>
       <c r="I14">
         <f ca="1">Distances!I14/80</f>
-        <v>0.3369995649576551</v>
+        <v>1.0475812673396681</v>
       </c>
       <c r="J14">
         <f ca="1">Distances!J14/80</f>
-        <v>0.9307580468489538</v>
+        <v>1.1957586847571007</v>
       </c>
       <c r="K14">
         <f ca="1">Distances!K14/80</f>
-        <v>1.0069582761839855</v>
+        <v>1.5812391046391017</v>
       </c>
       <c r="L14">
         <f ca="1">Distances!L14/80</f>
-        <v>1.2696992232929607</v>
+        <v>0.93865785543330404</v>
       </c>
       <c r="M14">
         <f ca="1">Distances!M14/80</f>
-        <v>1.1424733807071814</v>
+        <v>1.1241207736965708</v>
       </c>
       <c r="N14">
         <f>Distances!N14/80</f>

--- a/12 5/ExactModelData.xlsx
+++ b/12 5/ExactModelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B952E99-5CA9-4E80-B1C3-6D9661D3BAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F031977-6243-4165-9D1C-023CAB8D61CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -411,40 +411,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.830919756441219</c:v>
+                  <c:v>-79.502308735567468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72.850594616918812</c:v>
+                  <c:v>2.4231222477572203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-42.14001137797419</c:v>
+                  <c:v>64.139086013651479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-67.73202686823285</c:v>
+                  <c:v>-37.796881029341392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.783968667676206</c:v>
+                  <c:v>22.159413619847754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-39.531371375238905</c:v>
+                  <c:v>-73.160972382987566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.98290891068136</c:v>
+                  <c:v>4.2189785697345883E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-83.695885561209906</c:v>
+                  <c:v>6.9555977058830365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.60923505273729</c:v>
+                  <c:v>-13.903984481021737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-87.387160662328768</c:v>
+                  <c:v>-20.094942123962085</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.554864857910886</c:v>
+                  <c:v>-16.556547685907901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-81.314928820258373</c:v>
+                  <c:v>41.380472012750374</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -462,40 +462,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.055463742800796</c:v>
+                  <c:v>-96.699710993645695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7495600502964237</c:v>
+                  <c:v>-18.506873440552624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.362813913397858</c:v>
+                  <c:v>60.630376833032983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-91.368146181383153</c:v>
+                  <c:v>-77.615416326944924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-79.159816365095637</c:v>
+                  <c:v>33.972595053650252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.133065209229912</c:v>
+                  <c:v>-88.519777652189859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.352503112047131</c:v>
+                  <c:v>-41.322754764027408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3044645292020647</c:v>
+                  <c:v>49.233065500018569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1373075289855592</c:v>
+                  <c:v>-20.000374178047124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.463181827615728</c:v>
+                  <c:v>-38.835042097944267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.232150858262287</c:v>
+                  <c:v>-38.105975564245796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-38.40867661916829</c:v>
+                  <c:v>-49.339984585412722</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1564,7 +1564,7 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1652,19 +1652,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.0282017757930653</v>
+        <v>1.299703148007052</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>10.939597290970404</v>
+        <v>10.92686973797551</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1698,11 +1698,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.78374509283693294</v>
+        <v>0.9333809528150232</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>9.7354535670636455</v>
+        <v>10.622323347837407</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1714,34 +1714,34 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.78374509283693294</v>
+        <v>1.299703148007052</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>9.7354535670636455</v>
+        <v>10.92686973797551</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H14" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>47.830919756441219</v>
+        <v>-79.502308735567468</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>35.055463742800796</v>
+        <v>-96.699710993645695</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I14" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3:L14" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
-        <v>9.1048724908400075E-2</v>
+        <v>4.9729819136546449E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1766,11 +1766,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.4597969155051786</v>
+        <v>1.299703148007052</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>11.869505907418592</v>
+        <v>10.92686973797551</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1782,34 +1782,34 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4597969155051786</v>
+        <v>0.90169714640509668</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>11.869505907418592</v>
+        <v>9.1635709089085431</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-72.850594616918812</v>
+        <v>2.4231222477572203</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>1.7495600502964237</v>
+        <v>-18.506873440552624</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J13" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>4.4476481997579143E-2</v>
+        <v>0.16495679337105287</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1834,11 +1834,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.0282017757930653</v>
+        <v>0.90169714640509668</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>10.939597290970404</v>
+        <v>9.1635709089085431</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1850,34 +1850,34 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.78374509283693294</v>
+        <v>0.90169714640509668</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>9.7354535670636455</v>
+        <v>9.1635709089085431</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-42.14001137797419</v>
+        <v>64.139086013651479</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>29.362813913397858</v>
+        <v>60.630376833032983</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.10437397226490569</v>
+        <v>0.16168147763702503</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1906,34 +1906,34 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.78374509283693294</v>
+        <v>1.299703148007052</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>9.7354535670636455</v>
+        <v>10.92686973797551</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-67.73202686823285</v>
+        <v>-37.796881029341392</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-91.368146181383153</v>
+        <v>-77.615416326944924</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>4.3742827739683132E-2</v>
+        <v>2.1692970820546109E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1962,15 +1962,15 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>76.783968667676206</v>
+        <v>22.159413619847754</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>-79.159816365095637</v>
+        <v>33.972595053650252</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.11011617571612581</v>
+        <v>0.12590352777773281</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1998,15 +1998,15 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-39.531371375238905</v>
+        <v>-73.160972382987566</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>24.133065209229912</v>
+        <v>-88.519777652189859</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>9.5010242960401559E-2</v>
+        <v>0.15711788773235844</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2033,15 +2033,15 @@
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>23.98290891068136</v>
+        <v>4.2189785697345883E-2</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>73.352503112047131</v>
+        <v>-41.322754764027408</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>1.668647744315771E-2</v>
+        <v>8.0962034377880077E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2068,15 +2068,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-83.695885561209906</v>
+        <v>6.9555977058830365</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>4.3044645292020647</v>
+        <v>49.233065500018569</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>0.10228730448942305</v>
+        <v>0.15950308135385427</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2103,15 +2103,15 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>95.60923505273729</v>
+        <v>-13.903984481021737</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>3.1373075289855592</v>
+        <v>-20.000374178047124</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>5.4716632407792481E-2</v>
+        <v>3.2962771256086099E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2138,15 +2138,15 @@
       </c>
       <c r="G12">
         <f ca="1"/>
-        <v>-87.387160662328768</v>
+        <v>-20.094942123962085</v>
       </c>
       <c r="H12">
         <f ca="1"/>
-        <v>91.463181827615728</v>
+        <v>-38.835042097944267</v>
       </c>
       <c r="I12">
         <f ca="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>5.3935267777007107E-2</v>
+        <v>0.10188727918580023</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2173,15 +2173,15 @@
       </c>
       <c r="G13">
         <f ca="1"/>
-        <v>57.554864857910886</v>
+        <v>-16.556547685907901</v>
       </c>
       <c r="H13">
         <f ca="1"/>
-        <v>48.232150858262287</v>
+        <v>-38.105975564245796</v>
       </c>
       <c r="I13">
         <f ca="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>5.0601308058795869E-2</v>
+        <v>1.9392144449094983E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2202,34 +2202,34 @@
       </c>
       <c r="G14">
         <f ca="1"/>
-        <v>-81.314928820258373</v>
+        <v>41.380472012750374</v>
       </c>
       <c r="H14">
         <f ca="1"/>
-        <v>-38.40867661916829</v>
+        <v>-49.339984585412722</v>
       </c>
       <c r="I14">
         <f ca="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <f ca="1">IF(J14=0,24,J14+1)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>6.4132600841652176E-2</v>
+        <v>1.9773239806908649E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2259,13 +2259,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.53</v>
+        <v>0.75396825396825395</v>
       </c>
     </row>
   </sheetData>
@@ -2296,51 +2296,51 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>59.301622431177549</v>
+        <v>125.18566691334951</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>72.871600067572501</v>
+        <v>18.664830188678604</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>51.361029972622482</v>
+        <v>88.260211588133899</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>113.73550720993694</v>
+        <v>86.329352291970636</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>110.2817046083091</v>
+        <v>40.560779413798201</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>46.315593045971035</v>
+        <v>114.84023212976105</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>77.173633014268049</v>
+        <v>41.322776301526098</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>83.806501387173441</v>
+        <v>49.721977816406337</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>95.660694780568051</v>
+        <v>24.358484183347443</v>
       </c>
       <c r="K1">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>126.49912837112814</v>
+        <v>43.726047085398527</v>
       </c>
       <c r="L1">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>75.09262843466432</v>
+        <v>41.547378316551331</v>
       </c>
       <c r="M1">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>89.929661895725658</v>
+        <v>64.395477658658464</v>
       </c>
       <c r="N1">
         <f>SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
@@ -2350,7 +2350,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>59.301622431177549</v>
+        <v>125.18566691334951</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2358,61 +2358,61 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>125.19309538557579</v>
+        <v>113.25147277809634</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>90.150844207217062</v>
+        <v>213.03897958132302</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>171.28258457543046</v>
+        <v>45.864507007976364</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>117.82787977122226</v>
+        <v>165.56073616648274</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>88.042425577119275</v>
+        <v>10.350065517049263</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>45.115306113879839</v>
+        <v>96.922311808254761</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>135.07377417434535</v>
+        <v>169.62118040323969</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>57.458995019420513</v>
+        <v>100.92536060355275</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>146.51197879925351</v>
+        <v>82.931026245518282</v>
       </c>
       <c r="L2">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>16.376208098188201</v>
+        <v>85.996480542469598</v>
       </c>
       <c r="M2">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>148.5787001010539</v>
+        <v>129.82908136048934</v>
       </c>
       <c r="N2">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>59.301622431177549</v>
+        <v>125.18566691334951</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>72.871600067572501</v>
+        <v>18.664830188678604</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>125.19309538557579</v>
+        <v>113.25147277809634</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2420,61 +2420,61 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>41.299294325499467</v>
+        <v>100.35718491676268</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>93.258280863670578</v>
+        <v>71.494534796460499</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>170.10828822047171</v>
+        <v>56.067957074946897</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>40.139655462259569</v>
+        <v>103.02796764615555</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>120.43134500840746</v>
+        <v>22.93977506332126</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>11.142166421421576</v>
+        <v>67.891403442931022</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>168.46554560323057</v>
+        <v>16.395272446221675</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>90.883693173178571</v>
+        <v>30.336408225303373</v>
       </c>
       <c r="L3">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>138.44210020460625</v>
+        <v>27.282827471613459</v>
       </c>
       <c r="M3">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>41.040576578632084</v>
+        <v>49.682550695222041</v>
       </c>
       <c r="N3">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>72.871600067572501</v>
+        <v>18.664830188678604</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>51.361029972622482</v>
+        <v>88.260211588133899</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>90.150844207217062</v>
+        <v>213.03897958132302</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>41.299294325499467</v>
+        <v>100.35718491676268</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2482,61 +2482,61 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>123.41359723410238</v>
+        <v>171.76390978148325</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>160.99712516831113</v>
+        <v>49.728565469841136</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>5.8442513782876464</v>
+        <v>202.72413427780702</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>79.418721617095144</v>
+        <v>120.42779225953049</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>48.526400577349051</v>
+        <v>58.308233043596417</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>140.22350757753756</v>
+        <v>112.21425426766125</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>76.835930484649495</v>
+        <v>130.34086488666202</v>
       </c>
       <c r="L4">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>101.46487187409872</v>
+        <v>127.51726386216528</v>
       </c>
       <c r="M4">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>78.279301770107054</v>
+        <v>112.30064515284666</v>
       </c>
       <c r="N4">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>51.361029972622482</v>
+        <v>88.260211588133899</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>113.73550720993694</v>
+        <v>86.329352291970636</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>171.28258457543046</v>
+        <v>45.864507007976364</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>93.258280863670578</v>
+        <v>71.494534796460499</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>123.41359723410238</v>
+        <v>171.76390978148325</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2544,61 +2544,61 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>145.03074254322129</v>
+        <v>126.67533916250719</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>118.89409910897014</v>
+        <v>37.007081122138359</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>188.53254824719156</v>
+        <v>52.430454541859419</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>96.995325787114737</v>
+        <v>134.51141845491111</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>188.7104889160579</v>
+        <v>62.372779217283366</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>183.88479759348769</v>
+        <v>42.629521066405616</v>
       </c>
       <c r="L5">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>187.5767794050098</v>
+        <v>44.856969022899932</v>
       </c>
       <c r="M5">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>54.673582667953099</v>
+        <v>84.074688669789822</v>
       </c>
       <c r="N5">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>113.73550720993694</v>
+        <v>86.329352291970636</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>110.2817046083091</v>
+        <v>40.560779413798201</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>117.82787977122226</v>
+        <v>165.56073616648274</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>170.10828822047171</v>
+        <v>56.067957074946897</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>160.99712516831113</v>
+        <v>49.728565469841136</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>145.03074254322129</v>
+        <v>126.67533916250719</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2606,61 +2606,61 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>155.55924181232891</v>
+        <v>155.21068699943302</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>161.393802556851</v>
+        <v>78.476501542158232</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>180.88689780779248</v>
+        <v>21.541540719971902</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>84.422788722632589</v>
+        <v>64.912634288461504</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>236.77915283605356</v>
+        <v>84.180654588347565</v>
       </c>
       <c r="L6">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>128.83505635642743</v>
+        <v>81.818372033106328</v>
       </c>
       <c r="M6">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>163.26639818864305</v>
+        <v>85.501081933847956</v>
       </c>
       <c r="N6">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>110.2817046083091</v>
+        <v>40.560779413798201</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>46.315593045971035</v>
+        <v>114.84023212976105</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>88.042425577119275</v>
+        <v>10.350065517049263</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>40.139655462259569</v>
+        <v>103.02796764615555</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>5.8442513782876464</v>
+        <v>202.72413427780702</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>118.89409910897014</v>
+        <v>37.007081122138359</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>155.55924181232891</v>
+        <v>155.21068699943302</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2668,61 +2668,61 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>80.353076280300058</v>
+        <v>87.099149944190117</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>48.411545298728434</v>
+        <v>159.35655179289569</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>136.76185632802992</v>
+        <v>90.588626591123955</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>82.604607451011944</v>
+        <v>72.695092781749196</v>
       </c>
       <c r="L7">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>100.03251069046685</v>
+        <v>75.799817521216738</v>
       </c>
       <c r="M7">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>75.21525871584339</v>
+        <v>121.05700586507749</v>
       </c>
       <c r="N7">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>46.315593045971035</v>
+        <v>114.84023212976105</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>77.173633014268049</v>
+        <v>41.322776301526098</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>45.115306113879839</v>
+        <v>96.922311808254761</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>120.43134500840746</v>
+        <v>22.93977506332126</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>79.418721617095144</v>
+        <v>120.42779225953049</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>188.53254824719156</v>
+        <v>52.430454541859419</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>161.393802556851</v>
+        <v>78.476501542158232</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>80.353076280300058</v>
+        <v>87.099149944190117</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2730,61 +2730,61 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>127.91541897307714</v>
+        <v>90.819336007070021</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>100.30206521989342</v>
+        <v>25.478219924694237</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>112.83301414141016</v>
+        <v>20.290214288075287</v>
       </c>
       <c r="L8">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>41.929802330525639</v>
+        <v>16.907564995333296</v>
       </c>
       <c r="M8">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>153.55193234122569</v>
+        <v>42.1085448750298</v>
       </c>
       <c r="N8">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>77.173633014268049</v>
+        <v>41.322776301526098</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>83.806501387173441</v>
+        <v>49.721977816406337</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>135.07377417434535</v>
+        <v>169.62118040323969</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>11.142166421421576</v>
+        <v>67.891403442931022</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>48.526400577349051</v>
+        <v>58.308233043596417</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>96.995325787114737</v>
+        <v>134.51141845491111</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>180.88689780779248</v>
+        <v>21.541540719971902</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>48.411545298728434</v>
+        <v>159.35655179289569</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>127.91541897307714</v>
+        <v>90.819336007070021</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2792,61 +2792,61 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>179.30891928134892</v>
+        <v>72.30761604885474</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>87.236847220523359</v>
+        <v>92.128840657919909</v>
       </c>
       <c r="L9">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>147.92368343233295</v>
+        <v>90.448488516668831</v>
       </c>
       <c r="M9">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>42.779450461207318</v>
+        <v>104.41129332686461</v>
       </c>
       <c r="N9">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>83.806501387173441</v>
+        <v>49.721977816406337</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>95.660694780568051</v>
+        <v>24.358484183347443</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>57.458995019420513</v>
+        <v>100.92536060355275</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>168.46554560323057</v>
+        <v>16.395272446221675</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>140.22350757753756</v>
+        <v>112.21425426766125</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>188.7104889160579</v>
+        <v>62.372779217283366</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>84.422788722632589</v>
+        <v>64.912634288461504</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>136.76185632802992</v>
+        <v>90.588626591123955</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>100.30206521989342</v>
+        <v>25.478219924694237</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>179.30891928134892</v>
+        <v>72.30761604885474</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2854,61 +2854,61 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>203.19729554135918</v>
+        <v>19.8260604303902</v>
       </c>
       <c r="L10">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>59.005762310276999</v>
+        <v>18.298876826511378</v>
       </c>
       <c r="M10">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>181.73670119433027</v>
+        <v>62.587409825521434</v>
       </c>
       <c r="N10">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>95.660694780568051</v>
+        <v>24.358484183347443</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>126.49912837112814</v>
+        <v>43.726047085398527</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>146.51197879925351</v>
+        <v>82.931026245518282</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>90.883693173178571</v>
+        <v>30.336408225303373</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>76.835930484649495</v>
+        <v>130.34086488666202</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>183.88479759348769</v>
+        <v>42.629521066405616</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>236.77915283605356</v>
+        <v>84.180654588347565</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>82.604607451011944</v>
+        <v>72.695092781749196</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>112.83301414141016</v>
+        <v>20.290214288075287</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>87.236847220523359</v>
+        <v>92.128840657919909</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>203.19729554135918</v>
+        <v>19.8260604303902</v>
       </c>
       <c r="K11">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2916,61 +2916,61 @@
       </c>
       <c r="L11">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>151.25181916454096</v>
+        <v>3.612723793734014</v>
       </c>
       <c r="M11">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>130.01373625877136</v>
+        <v>62.366500302208124</v>
       </c>
       <c r="N11">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>126.49912837112814</v>
+        <v>43.726047085398527</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>75.09262843466432</v>
+        <v>41.547378316551331</v>
       </c>
       <c r="B12">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>16.376208098188201</v>
+        <v>85.996480542469598</v>
       </c>
       <c r="C12">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>138.44210020460625</v>
+        <v>27.282827471613459</v>
       </c>
       <c r="D12">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>101.46487187409872</v>
+        <v>127.51726386216528</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>187.5767794050098</v>
+        <v>44.856969022899932</v>
       </c>
       <c r="F12">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>128.83505635642743</v>
+        <v>81.818372033106328</v>
       </c>
       <c r="G12">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>100.03251069046685</v>
+        <v>75.799817521216738</v>
       </c>
       <c r="H12">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>41.929802330525639</v>
+        <v>16.907564995333296</v>
       </c>
       <c r="I12">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>147.92368343233295</v>
+        <v>90.448488516668831</v>
       </c>
       <c r="J12">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>59.005762310276999</v>
+        <v>18.298876826511378</v>
       </c>
       <c r="K12">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>151.25181916454096</v>
+        <v>3.612723793734014</v>
       </c>
       <c r="L12">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
@@ -2978,61 +2978,61 @@
       </c>
       <c r="M12">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>163.68094752350132</v>
+        <v>59.01610975191754</v>
       </c>
       <c r="N12">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>75.09262843466432</v>
+        <v>41.547378316551331</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>89.929661895725658</v>
+        <v>64.395477658658464</v>
       </c>
       <c r="B13">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>148.5787001010539</v>
+        <v>129.82908136048934</v>
       </c>
       <c r="C13">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>41.040576578632084</v>
+        <v>49.682550695222041</v>
       </c>
       <c r="D13">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>78.279301770107054</v>
+        <v>112.30064515284666</v>
       </c>
       <c r="E13">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>54.673582667953099</v>
+        <v>84.074688669789822</v>
       </c>
       <c r="F13">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>163.26639818864305</v>
+        <v>85.501081933847956</v>
       </c>
       <c r="G13">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>75.21525871584339</v>
+        <v>121.05700586507749</v>
       </c>
       <c r="H13">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>153.55193234122569</v>
+        <v>42.1085448750298</v>
       </c>
       <c r="I13">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>42.779450461207318</v>
+        <v>104.41129332686461</v>
       </c>
       <c r="J13">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>181.73670119433027</v>
+        <v>62.587409825521434</v>
       </c>
       <c r="K13">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>130.01373625877136</v>
+        <v>62.366500302208124</v>
       </c>
       <c r="L13">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>163.68094752350132</v>
+        <v>59.01610975191754</v>
       </c>
       <c r="M13">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="N13">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>89.929661895725658</v>
+        <v>64.395477658658464</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3050,51 +3050,51 @@
       </c>
       <c r="B14">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>59.301622431177549</v>
+        <v>125.18566691334951</v>
       </c>
       <c r="C14">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>72.871600067572501</v>
+        <v>18.664830188678604</v>
       </c>
       <c r="D14">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>51.361029972622482</v>
+        <v>88.260211588133899</v>
       </c>
       <c r="E14">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>113.73550720993694</v>
+        <v>86.329352291970636</v>
       </c>
       <c r="F14">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>110.2817046083091</v>
+        <v>40.560779413798201</v>
       </c>
       <c r="G14">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>46.315593045971035</v>
+        <v>114.84023212976105</v>
       </c>
       <c r="H14">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>77.173633014268049</v>
+        <v>41.322776301526098</v>
       </c>
       <c r="I14">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>83.806501387173441</v>
+        <v>49.721977816406337</v>
       </c>
       <c r="J14">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>95.660694780568051</v>
+        <v>24.358484183347443</v>
       </c>
       <c r="K14">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>126.49912837112814</v>
+        <v>43.726047085398527</v>
       </c>
       <c r="L14">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>75.09262843466432</v>
+        <v>41.547378316551331</v>
       </c>
       <c r="M14">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>89.929661895725658</v>
+        <v>64.395477658658464</v>
       </c>
       <c r="N14">
         <f>SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3113,8 +3113,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,51 +3126,51 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.74127028038971932</v>
+        <v>1.5648208364168688</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.91089500084465624</v>
+        <v>0.23331037735848253</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.64201287465778101</v>
+        <v>1.1032526448516737</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>1.0791169036496329</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>1.3785213076038638</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>0.57894491307463791</v>
+        <v>0.50700974267247756</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.57894491307463791</v>
+        <v>1.4355029016220131</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>0.96467041267835063</v>
+        <v>0.51653470376907618</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.0475812673396681</v>
+        <v>0.62152472270507919</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>1.1957586847571007</v>
+        <v>0.30448105229184302</v>
       </c>
       <c r="K1">
         <f ca="1">Distances!K1/80</f>
-        <v>1.5812391046391017</v>
+        <v>0.54657558856748156</v>
       </c>
       <c r="L1">
         <f ca="1">Distances!L1/80</f>
-        <v>0.93865785543330404</v>
+        <v>0.51934222895689164</v>
       </c>
       <c r="M1">
         <f ca="1">Distances!M1/80</f>
-        <v>1.1241207736965708</v>
+        <v>0.8049434707332308</v>
       </c>
       <c r="N1">
         <f>Distances!N1/80</f>
@@ -3192,7 +3192,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.74127028038971932</v>
+        <v>1.5648208364168688</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -3200,51 +3200,51 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.5649136923196973</v>
+        <v>1.4156434097262043</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.1268855525902133</v>
+        <v>2.6629872447665379</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>2.141032307192881</v>
+        <v>0.57330633759970451</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.4728484971402782</v>
+        <v>2.0695092020810342</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.1005303197139908</v>
+        <v>0.12937581896311579</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.56394132642349803</v>
+        <v>1.2115288976031846</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>1.6884221771793169</v>
+        <v>2.1202647550404961</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>0.71823743774275639</v>
+        <v>1.2615670075444094</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>1.831399734990669</v>
+        <v>1.0366378280689785</v>
       </c>
       <c r="L2">
         <f ca="1">Distances!L2/80</f>
-        <v>0.20470260122735251</v>
+        <v>1.0749560067808699</v>
       </c>
       <c r="M2">
         <f ca="1">Distances!M2/80</f>
-        <v>1.8572337512631738</v>
+        <v>1.6228635170061168</v>
       </c>
       <c r="N2">
         <f ca="1">Distances!N2/80</f>
-        <v>0.74127028038971932</v>
+        <v>1.5648208364168688</v>
       </c>
       <c r="O2">
         <f>Distances!O2/80</f>
@@ -3262,11 +3262,11 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.91089500084465624</v>
+        <v>0.23331037735848253</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.5649136923196973</v>
+        <v>1.4156434097262043</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -3274,47 +3274,47 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.51624117906874334</v>
+        <v>1.2544648114595334</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.1657285107958821</v>
+        <v>0.89368168495575628</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>2.1263536027558962</v>
+        <v>0.70084946343683618</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.50174569327824459</v>
+        <v>1.2878495955769442</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.5053918126050934</v>
+        <v>0.28674718829151574</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>0.13927708026776969</v>
+        <v>0.84864254303663778</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>2.1058193200403821</v>
+        <v>0.20494090557777095</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>1.1360461646647322</v>
+        <v>0.37920510281629216</v>
       </c>
       <c r="L3">
         <f ca="1">Distances!L3/80</f>
-        <v>1.7305262525575782</v>
+        <v>0.34103534339516822</v>
       </c>
       <c r="M3">
         <f ca="1">Distances!M3/80</f>
-        <v>0.51300720723290105</v>
+        <v>0.62103188369027551</v>
       </c>
       <c r="N3">
         <f ca="1">Distances!N3/80</f>
-        <v>0.91089500084465624</v>
+        <v>0.23331037735848253</v>
       </c>
       <c r="O3">
         <f>Distances!O3/80</f>
@@ -3332,15 +3332,15 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.64201287465778101</v>
+        <v>1.1032526448516737</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.1268855525902133</v>
+        <v>2.6629872447665379</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.51624117906874334</v>
+        <v>1.2544648114595334</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -3348,43 +3348,43 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.5426699654262799</v>
+        <v>2.1470488722685408</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>2.0124640646038889</v>
+        <v>0.62160706837301416</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>7.3053142228595574E-2</v>
+        <v>2.5340516784725877</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>0.99273402021368928</v>
+        <v>1.5053474032441312</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>0.60658000721686312</v>
+        <v>0.72885291304495525</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>1.7527938447192195</v>
+        <v>1.4026781783457656</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>0.96044913105811869</v>
+        <v>1.6292608110832751</v>
       </c>
       <c r="L4">
         <f ca="1">Distances!L4/80</f>
-        <v>1.2683108984262339</v>
+        <v>1.5939657982770661</v>
       </c>
       <c r="M4">
         <f ca="1">Distances!M4/80</f>
-        <v>0.97849127212633813</v>
+        <v>1.4037580644105832</v>
       </c>
       <c r="N4">
         <f ca="1">Distances!N4/80</f>
-        <v>0.64201287465778101</v>
+        <v>1.1032526448516737</v>
       </c>
       <c r="O4">
         <f>Distances!O4/80</f>
@@ -3402,19 +3402,19 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.4216938401242118</v>
+        <v>1.0791169036496329</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>2.141032307192881</v>
+        <v>0.57330633759970451</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.1657285107958821</v>
+        <v>0.89368168495575628</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.5426699654262799</v>
+        <v>2.1470488722685408</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3422,39 +3422,39 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.8128842817902662</v>
+        <v>1.5834417395313398</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.4861762388621267</v>
+        <v>0.46258851402672951</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>2.3566568530898944</v>
+        <v>0.65538068177324271</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>1.2124415723389341</v>
+        <v>1.6813927306863889</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>2.3588811114507235</v>
+        <v>0.77965974021604212</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>2.2985599699185961</v>
+        <v>0.5328690133300702</v>
       </c>
       <c r="L5">
         <f ca="1">Distances!L5/80</f>
-        <v>2.3447097425626224</v>
+        <v>0.56071211278624911</v>
       </c>
       <c r="M5">
         <f ca="1">Distances!M5/80</f>
-        <v>0.68341978334941378</v>
+        <v>1.0509336083723728</v>
       </c>
       <c r="N5">
         <f ca="1">Distances!N5/80</f>
-        <v>1.4216938401242118</v>
+        <v>1.0791169036496329</v>
       </c>
       <c r="O5">
         <f>Distances!O5/80</f>
@@ -3472,23 +3472,23 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>1.3785213076038638</v>
+        <v>0.50700974267247756</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.4728484971402782</v>
+        <v>2.0695092020810342</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>2.1263536027558962</v>
+        <v>0.70084946343683618</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>2.0124640646038889</v>
+        <v>0.62160706837301416</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.8128842817902662</v>
+        <v>1.5834417395313398</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3496,35 +3496,35 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.9444905226541114</v>
+        <v>1.9401335874929129</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>2.0174225319606376</v>
+        <v>0.98095626927697788</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>2.261086222597406</v>
+        <v>0.26926925899964876</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.0552848590329074</v>
+        <v>0.81140792860576882</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>2.9597394104506694</v>
+        <v>1.0522581823543447</v>
       </c>
       <c r="L6">
         <f ca="1">Distances!L6/80</f>
-        <v>1.6104382044553429</v>
+        <v>1.022729650413829</v>
       </c>
       <c r="M6">
         <f ca="1">Distances!M6/80</f>
-        <v>2.0408299773580381</v>
+        <v>1.0687635241730995</v>
       </c>
       <c r="N6">
         <f ca="1">Distances!N6/80</f>
-        <v>1.3785213076038638</v>
+        <v>0.50700974267247756</v>
       </c>
       <c r="O6">
         <f>Distances!O6/80</f>
@@ -3542,27 +3542,27 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.57894491307463791</v>
+        <v>1.4355029016220131</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.1005303197139908</v>
+        <v>0.12937581896311579</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.50174569327824459</v>
+        <v>1.2878495955769442</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>7.3053142228595574E-2</v>
+        <v>2.5340516784725877</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.4861762388621267</v>
+        <v>0.46258851402672951</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.9444905226541114</v>
+        <v>1.9401335874929129</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3570,31 +3570,31 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.0044134535037508</v>
+        <v>1.0887393743023766</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>0.60514431623410547</v>
+        <v>1.9919568974111961</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.7095232041003741</v>
+        <v>1.1323578323890495</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.0325575931376494</v>
+        <v>0.90868865977186497</v>
       </c>
       <c r="L7">
         <f ca="1">Distances!L7/80</f>
-        <v>1.2504063836308357</v>
+        <v>0.94749771901520918</v>
       </c>
       <c r="M7">
         <f ca="1">Distances!M7/80</f>
-        <v>0.94019073394804242</v>
+        <v>1.5132125733134685</v>
       </c>
       <c r="N7">
         <f ca="1">Distances!N7/80</f>
-        <v>0.57894491307463791</v>
+        <v>1.4355029016220131</v>
       </c>
       <c r="O7">
         <f>Distances!O7/80</f>
@@ -3612,31 +3612,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>0.96467041267835063</v>
+        <v>0.51653470376907618</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.56394132642349803</v>
+        <v>1.2115288976031846</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.5053918126050934</v>
+        <v>0.28674718829151574</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>0.99273402021368928</v>
+        <v>1.5053474032441312</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>2.3566568530898944</v>
+        <v>0.65538068177324271</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>2.0174225319606376</v>
+        <v>0.98095626927697788</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.0044134535037508</v>
+        <v>1.0887393743023766</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3644,27 +3644,27 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>1.5989427371634641</v>
+        <v>1.1352417000883752</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>1.2537758152486678</v>
+        <v>0.31847774905867798</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>1.410412676767627</v>
+        <v>0.2536276786009411</v>
       </c>
       <c r="L8">
         <f ca="1">Distances!L8/80</f>
-        <v>0.52412252913157054</v>
+        <v>0.21134456244166619</v>
       </c>
       <c r="M8">
         <f ca="1">Distances!M8/80</f>
-        <v>1.9193991542653213</v>
+        <v>0.52635681093787245</v>
       </c>
       <c r="N8">
         <f ca="1">Distances!N8/80</f>
-        <v>0.96467041267835063</v>
+        <v>0.51653470376907618</v>
       </c>
       <c r="O8">
         <f>Distances!O8/80</f>
@@ -3682,35 +3682,35 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.0475812673396681</v>
+        <v>0.62152472270507919</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>1.6884221771793169</v>
+        <v>2.1202647550404961</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>0.13927708026776969</v>
+        <v>0.84864254303663778</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>0.60658000721686312</v>
+        <v>0.72885291304495525</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>1.2124415723389341</v>
+        <v>1.6813927306863889</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>2.261086222597406</v>
+        <v>0.26926925899964876</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>0.60514431623410547</v>
+        <v>1.9919568974111961</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>1.5989427371634641</v>
+        <v>1.1352417000883752</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3718,23 +3718,23 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>2.2413614910168613</v>
+        <v>0.9038452006106843</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.0904605902565421</v>
+        <v>1.1516105082239989</v>
       </c>
       <c r="L9">
         <f ca="1">Distances!L9/80</f>
-        <v>1.849046042904162</v>
+        <v>1.1306061064583603</v>
       </c>
       <c r="M9">
         <f ca="1">Distances!M9/80</f>
-        <v>0.5347431307650915</v>
+        <v>1.3051411665858077</v>
       </c>
       <c r="N9">
         <f ca="1">Distances!N9/80</f>
-        <v>1.0475812673396681</v>
+        <v>0.62152472270507919</v>
       </c>
       <c r="O9">
         <f>Distances!O9/80</f>
@@ -3752,39 +3752,39 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>1.1957586847571007</v>
+        <v>0.30448105229184302</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>0.71823743774275639</v>
+        <v>1.2615670075444094</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>2.1058193200403821</v>
+        <v>0.20494090557777095</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>1.7527938447192195</v>
+        <v>1.4026781783457656</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>2.3588811114507235</v>
+        <v>0.77965974021604212</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.0552848590329074</v>
+        <v>0.81140792860576882</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.7095232041003741</v>
+        <v>1.1323578323890495</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>1.2537758152486678</v>
+        <v>0.31847774905867798</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>2.2413614910168613</v>
+        <v>0.9038452006106843</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3792,19 +3792,19 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>2.5399661942669898</v>
+        <v>0.2478257553798775</v>
       </c>
       <c r="L10">
         <f ca="1">Distances!L10/80</f>
-        <v>0.73757202887846252</v>
+        <v>0.22873596033139224</v>
       </c>
       <c r="M10">
         <f ca="1">Distances!M10/80</f>
-        <v>2.2717087649291283</v>
+        <v>0.7823426228190179</v>
       </c>
       <c r="N10">
         <f ca="1">Distances!N10/80</f>
-        <v>1.1957586847571007</v>
+        <v>0.30448105229184302</v>
       </c>
       <c r="O10">
         <f>Distances!O10/80</f>
@@ -3822,43 +3822,43 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">Distances!A11/80</f>
-        <v>1.5812391046391017</v>
+        <v>0.54657558856748156</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>1.831399734990669</v>
+        <v>1.0366378280689785</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>1.1360461646647322</v>
+        <v>0.37920510281629216</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>0.96044913105811869</v>
+        <v>1.6292608110832751</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>2.2985599699185961</v>
+        <v>0.5328690133300702</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>2.9597394104506694</v>
+        <v>1.0522581823543447</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.0325575931376494</v>
+        <v>0.90868865977186497</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>1.410412676767627</v>
+        <v>0.2536276786009411</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.0904605902565421</v>
+        <v>1.1516105082239989</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>2.5399661942669898</v>
+        <v>0.2478257553798775</v>
       </c>
       <c r="K11">
         <f ca="1">Distances!K11/80</f>
@@ -3866,15 +3866,15 @@
       </c>
       <c r="L11">
         <f ca="1">Distances!L11/80</f>
-        <v>1.890647739556762</v>
+        <v>4.5159047421675175E-2</v>
       </c>
       <c r="M11">
         <f ca="1">Distances!M11/80</f>
-        <v>1.625171703234642</v>
+        <v>0.77958125377760157</v>
       </c>
       <c r="N11">
         <f ca="1">Distances!N11/80</f>
-        <v>1.5812391046391017</v>
+        <v>0.54657558856748156</v>
       </c>
       <c r="O11">
         <f>Distances!O11/80</f>
@@ -3892,47 +3892,47 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">Distances!A12/80</f>
-        <v>0.93865785543330404</v>
+        <v>0.51934222895689164</v>
       </c>
       <c r="B12">
         <f ca="1">Distances!B12/80</f>
-        <v>0.20470260122735251</v>
+        <v>1.0749560067808699</v>
       </c>
       <c r="C12">
         <f ca="1">Distances!C12/80</f>
-        <v>1.7305262525575782</v>
+        <v>0.34103534339516822</v>
       </c>
       <c r="D12">
         <f ca="1">Distances!D12/80</f>
-        <v>1.2683108984262339</v>
+        <v>1.5939657982770661</v>
       </c>
       <c r="E12">
         <f ca="1">Distances!E12/80</f>
-        <v>2.3447097425626224</v>
+        <v>0.56071211278624911</v>
       </c>
       <c r="F12">
         <f ca="1">Distances!F12/80</f>
-        <v>1.6104382044553429</v>
+        <v>1.022729650413829</v>
       </c>
       <c r="G12">
         <f ca="1">Distances!G12/80</f>
-        <v>1.2504063836308357</v>
+        <v>0.94749771901520918</v>
       </c>
       <c r="H12">
         <f ca="1">Distances!H12/80</f>
-        <v>0.52412252913157054</v>
+        <v>0.21134456244166619</v>
       </c>
       <c r="I12">
         <f ca="1">Distances!I12/80</f>
-        <v>1.849046042904162</v>
+        <v>1.1306061064583603</v>
       </c>
       <c r="J12">
         <f ca="1">Distances!J12/80</f>
-        <v>0.73757202887846252</v>
+        <v>0.22873596033139224</v>
       </c>
       <c r="K12">
         <f ca="1">Distances!K12/80</f>
-        <v>1.890647739556762</v>
+        <v>4.5159047421675175E-2</v>
       </c>
       <c r="L12">
         <f ca="1">Distances!L12/80</f>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="M12">
         <f ca="1">Distances!M12/80</f>
-        <v>2.0460118440437665</v>
+        <v>0.73770137189896923</v>
       </c>
       <c r="N12">
         <f ca="1">Distances!N12/80</f>
-        <v>0.93865785543330404</v>
+        <v>0.51934222895689164</v>
       </c>
       <c r="O12">
         <f>Distances!O12/80</f>
@@ -3962,51 +3962,51 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">Distances!A13/80</f>
-        <v>1.1241207736965708</v>
+        <v>0.8049434707332308</v>
       </c>
       <c r="B13">
         <f ca="1">Distances!B13/80</f>
-        <v>1.8572337512631738</v>
+        <v>1.6228635170061168</v>
       </c>
       <c r="C13">
         <f ca="1">Distances!C13/80</f>
-        <v>0.51300720723290105</v>
+        <v>0.62103188369027551</v>
       </c>
       <c r="D13">
         <f ca="1">Distances!D13/80</f>
-        <v>0.97849127212633813</v>
+        <v>1.4037580644105832</v>
       </c>
       <c r="E13">
         <f ca="1">Distances!E13/80</f>
-        <v>0.68341978334941378</v>
+        <v>1.0509336083723728</v>
       </c>
       <c r="F13">
         <f ca="1">Distances!F13/80</f>
-        <v>2.0408299773580381</v>
+        <v>1.0687635241730995</v>
       </c>
       <c r="G13">
         <f ca="1">Distances!G13/80</f>
-        <v>0.94019073394804242</v>
+        <v>1.5132125733134685</v>
       </c>
       <c r="H13">
         <f ca="1">Distances!H13/80</f>
-        <v>1.9193991542653213</v>
+        <v>0.52635681093787245</v>
       </c>
       <c r="I13">
         <f ca="1">Distances!I13/80</f>
-        <v>0.5347431307650915</v>
+        <v>1.3051411665858077</v>
       </c>
       <c r="J13">
         <f ca="1">Distances!J13/80</f>
-        <v>2.2717087649291283</v>
+        <v>0.7823426228190179</v>
       </c>
       <c r="K13">
         <f ca="1">Distances!K13/80</f>
-        <v>1.625171703234642</v>
+        <v>0.77958125377760157</v>
       </c>
       <c r="L13">
         <f ca="1">Distances!L13/80</f>
-        <v>2.0460118440437665</v>
+        <v>0.73770137189896923</v>
       </c>
       <c r="M13">
         <f ca="1">Distances!M13/80</f>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="N13">
         <f ca="1">Distances!N13/80</f>
-        <v>1.1241207736965708</v>
+        <v>0.8049434707332308</v>
       </c>
       <c r="O13">
         <f>Distances!O13/80</f>
@@ -4036,51 +4036,51 @@
       </c>
       <c r="B14">
         <f ca="1">Distances!B14/80</f>
-        <v>0.74127028038971932</v>
+        <v>1.5648208364168688</v>
       </c>
       <c r="C14">
         <f ca="1">Distances!C14/80</f>
-        <v>0.91089500084465624</v>
+        <v>0.23331037735848253</v>
       </c>
       <c r="D14">
         <f ca="1">Distances!D14/80</f>
-        <v>0.64201287465778101</v>
+        <v>1.1032526448516737</v>
       </c>
       <c r="E14">
         <f ca="1">Distances!E14/80</f>
-        <v>1.4216938401242118</v>
+        <v>1.0791169036496329</v>
       </c>
       <c r="F14">
         <f ca="1">Distances!F14/80</f>
-        <v>1.3785213076038638</v>
+        <v>0.50700974267247756</v>
       </c>
       <c r="G14">
         <f ca="1">Distances!G14/80</f>
-        <v>0.57894491307463791</v>
+        <v>1.4355029016220131</v>
       </c>
       <c r="H14">
         <f ca="1">Distances!H14/80</f>
-        <v>0.96467041267835063</v>
+        <v>0.51653470376907618</v>
       </c>
       <c r="I14">
         <f ca="1">Distances!I14/80</f>
-        <v>1.0475812673396681</v>
+        <v>0.62152472270507919</v>
       </c>
       <c r="J14">
         <f ca="1">Distances!J14/80</f>
-        <v>1.1957586847571007</v>
+        <v>0.30448105229184302</v>
       </c>
       <c r="K14">
         <f ca="1">Distances!K14/80</f>
-        <v>1.5812391046391017</v>
+        <v>0.54657558856748156</v>
       </c>
       <c r="L14">
         <f ca="1">Distances!L14/80</f>
-        <v>0.93865785543330404</v>
+        <v>0.51934222895689164</v>
       </c>
       <c r="M14">
         <f ca="1">Distances!M14/80</f>
-        <v>1.1241207736965708</v>
+        <v>0.8049434707332308</v>
       </c>
       <c r="N14">
         <f>Distances!N14/80</f>
